--- a/Fonctionnalité.xlsx
+++ b/Fonctionnalité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/422b5e7ea49be853/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{8F90EE29-5EB8-4D2E-8133-30F45F39E7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01409AD4-7DE0-48B5-A0F5-28AF77FE5E1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CDE65-1C11-41A5-9AD9-9678FDD0BB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="3090" windowWidth="28800" windowHeight="11385" xr2:uid="{3C1348B2-64AF-4800-893C-AA293273578B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{3C1348B2-64AF-4800-893C-AA293273578B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Fonctionnalite</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>ControleurCréation</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>S'authentifier</t>
+  </si>
+  <si>
+    <t>Modifier son compte</t>
+  </si>
+  <si>
+    <t>Rendre une liste publique</t>
+  </si>
+  <si>
+    <t>Afficher les listes de souhaits publiques</t>
+  </si>
+  <si>
+    <t>Créer une cagnotte sur un item</t>
+  </si>
+  <si>
+    <t>Participer a une cagnotte</t>
+  </si>
+  <si>
+    <t>Uploader une image</t>
+  </si>
+  <si>
+    <t>Créer un compte participant</t>
+  </si>
+  <si>
+    <t>Afficher la liste des créateurs</t>
+  </si>
+  <si>
+    <t>Supprimer son compte</t>
+  </si>
+  <si>
+    <t>Joindre des listes a son compte</t>
   </si>
 </sst>
 </file>
@@ -192,12 +231,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,16 +257,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D9E9D4-3346-4702-AFC0-0D490F40261E}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,23 +597,23 @@
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -579,7 +625,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -694,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -818,6 +864,107 @@
       </c>
       <c r="D23" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Fonctionnalité.xlsx
+++ b/Fonctionnalité.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddy\git\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CDE65-1C11-41A5-9AD9-9678FDD0BB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{3C1348B2-64AF-4800-893C-AA293273578B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Fonctionnalite</t>
   </si>
@@ -178,12 +177,15 @@
   </si>
   <si>
     <t>Joindre des listes a son compte</t>
+  </si>
+  <si>
+    <t>newMessage{}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D9E9D4-3346-4702-AFC0-0D490F40261E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +738,9 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
       <c r="F9">
         <v>3</v>
       </c>
